--- a/datasets/archipielago_de_revillagigedo/Hollarsmith_et_al_2020/raw/Data_Hollarsmith_et_al_Jbio2020.xlsx
+++ b/datasets/archipielago_de_revillagigedo/Hollarsmith_et_al_2020/raw/Data_Hollarsmith_et_al_Jbio2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jholl\Documents\Davis\Research\ROV\Manuscript\Jbio_revision_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandra Earl\Desktop\Labs\UNESCO\mwhs-data-mobilization\datasets\archipielago_de_revillagigedo\Hollarsmith_et_al_2020\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E5648-BAFA-44D1-B5D8-C1A5BB076448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3054112-2A7B-42D7-8BAC-DB903D31BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D236C4E4-080F-4692-9BB6-25ADA7A837B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D236C4E4-080F-4692-9BB6-25ADA7A837B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1917,15 +1917,17 @@
   <dimension ref="A1:G858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2134,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2801,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +2962,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +3537,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3627,7 +3629,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4089,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4478,7 +4480,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>114</v>
       </c>
@@ -4731,7 +4733,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -4823,7 +4825,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>114</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>114</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>114</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>114</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>114</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>114</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>114</v>
       </c>
@@ -5076,7 +5078,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>114</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>114</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>114</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>114</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>114</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>114</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>114</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -5306,7 +5308,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>114</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>114</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>114</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>114</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>114</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>114</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>114</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>114</v>
       </c>
@@ -5536,7 +5538,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -5559,7 +5561,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>114</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>114</v>
       </c>
@@ -5628,7 +5630,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>114</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>114</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>114</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>114</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>114</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>114</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>114</v>
       </c>
@@ -5789,7 +5791,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>114</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>114</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>114</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>114</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>114</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>114</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>114</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>114</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>114</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>114</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>114</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>114</v>
       </c>
@@ -6088,7 +6090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>114</v>
       </c>
@@ -6111,7 +6113,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>114</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>114</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>114</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>114</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>114</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>114</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>114</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>114</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>114</v>
       </c>
@@ -6433,7 +6435,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>114</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>114</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>114</v>
       </c>
@@ -6525,7 +6527,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>114</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>114</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>114</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>114</v>
       </c>
@@ -6617,7 +6619,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>114</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>114</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>114</v>
       </c>
@@ -6683,7 +6685,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>114</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>114</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>114</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>114</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>114</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>114</v>
       </c>
@@ -6844,7 +6846,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>114</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>114</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>114</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>114</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>114</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>114</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>114</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>114</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>114</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>114</v>
       </c>
@@ -7097,7 +7099,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>114</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>114</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>114</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>114</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>114</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>114</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>114</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>114</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>114</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>114</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>114</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>114</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>114</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>114</v>
       </c>
@@ -7442,7 +7444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>114</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>114</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>114</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>114</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>114</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>114</v>
       </c>
@@ -7580,7 +7582,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>114</v>
       </c>
@@ -7603,7 +7605,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>114</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>114</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>114</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>114</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>114</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>114</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>114</v>
       </c>
@@ -7764,7 +7766,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>114</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>114</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>114</v>
       </c>
@@ -7833,7 +7835,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>114</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>114</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>114</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>114</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>114</v>
       </c>
@@ -7948,7 +7950,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>114</v>
       </c>
@@ -7971,7 +7973,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>114</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>114</v>
       </c>
@@ -8017,7 +8019,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>114</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>114</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>114</v>
       </c>
@@ -8086,7 +8088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>114</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>114</v>
       </c>
@@ -8132,7 +8134,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>114</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>114</v>
       </c>
@@ -8178,7 +8180,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>114</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>114</v>
       </c>
@@ -8224,7 +8226,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>114</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>114</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>114</v>
       </c>
@@ -8293,7 +8295,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>114</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>114</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>114</v>
       </c>
@@ -8362,7 +8364,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>114</v>
       </c>
@@ -8385,7 +8387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>114</v>
       </c>
@@ -8408,7 +8410,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>114</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>114</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>114</v>
       </c>
@@ -8477,7 +8479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>114</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>114</v>
       </c>
@@ -8523,7 +8525,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>114</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>114</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>114</v>
       </c>
@@ -8592,7 +8594,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>114</v>
       </c>
@@ -8615,7 +8617,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>114</v>
       </c>
@@ -8638,7 +8640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>114</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>114</v>
       </c>
@@ -8684,7 +8686,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>114</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>114</v>
       </c>
@@ -8730,7 +8732,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>114</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>114</v>
       </c>
@@ -8776,7 +8778,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>114</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>114</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>114</v>
       </c>
@@ -8845,7 +8847,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>114</v>
       </c>
@@ -8868,7 +8870,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>114</v>
       </c>
@@ -8891,7 +8893,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>114</v>
       </c>
@@ -8914,7 +8916,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>114</v>
       </c>
@@ -8937,7 +8939,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>114</v>
       </c>
@@ -8960,7 +8962,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>114</v>
       </c>
@@ -8983,7 +8985,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>114</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>114</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>114</v>
       </c>
@@ -9052,7 +9054,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>114</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>114</v>
       </c>
@@ -9098,7 +9100,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>114</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>114</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>114</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>114</v>
       </c>
@@ -9190,7 +9192,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>114</v>
       </c>
@@ -9213,7 +9215,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>114</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>114</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>114</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>114</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>114</v>
       </c>
@@ -9328,7 +9330,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>114</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>114</v>
       </c>
@@ -9374,7 +9376,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>114</v>
       </c>
@@ -9397,7 +9399,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>114</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>114</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>114</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>114</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>114</v>
       </c>
@@ -9512,7 +9514,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>114</v>
       </c>
@@ -9535,7 +9537,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>114</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>114</v>
       </c>
@@ -9581,7 +9583,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>114</v>
       </c>
@@ -9604,7 +9606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>114</v>
       </c>
@@ -9627,7 +9629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>114</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>114</v>
       </c>
@@ -9673,7 +9675,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>114</v>
       </c>
@@ -9696,7 +9698,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>114</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>114</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>114</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>114</v>
       </c>
@@ -9788,7 +9790,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>114</v>
       </c>
@@ -9811,7 +9813,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>114</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>114</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>114</v>
       </c>
@@ -9880,7 +9882,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>114</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>114</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>114</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>114</v>
       </c>
@@ -9972,7 +9974,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>114</v>
       </c>
@@ -9995,7 +9997,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>114</v>
       </c>
@@ -10018,7 +10020,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>114</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>114</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>114</v>
       </c>
@@ -10087,7 +10089,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>114</v>
       </c>
@@ -10110,7 +10112,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>114</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>114</v>
       </c>
@@ -10156,7 +10158,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>114</v>
       </c>
@@ -10179,7 +10181,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>114</v>
       </c>
@@ -10202,7 +10204,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>114</v>
       </c>
@@ -10225,7 +10227,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>114</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>114</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>114</v>
       </c>
@@ -10294,7 +10296,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>114</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>114</v>
       </c>
@@ -10340,7 +10342,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>114</v>
       </c>
@@ -10363,7 +10365,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>114</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>114</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>114</v>
       </c>
@@ -10432,7 +10434,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>114</v>
       </c>
@@ -10455,7 +10457,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>114</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>114</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>114</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>114</v>
       </c>
@@ -10547,7 +10549,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>114</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>114</v>
       </c>
@@ -10593,7 +10595,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>114</v>
       </c>
@@ -10616,7 +10618,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>114</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>114</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>114</v>
       </c>
@@ -10685,7 +10687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>114</v>
       </c>
@@ -10708,7 +10710,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>114</v>
       </c>
@@ -10731,7 +10733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>114</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>114</v>
       </c>
@@ -10777,7 +10779,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>114</v>
       </c>
@@ -10800,7 +10802,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>114</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -10869,7 +10871,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -10892,7 +10894,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -10915,7 +10917,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -10938,7 +10940,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -10961,7 +10963,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -11007,7 +11009,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -11030,7 +11032,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -11053,7 +11055,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -11237,7 +11239,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -11260,7 +11262,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -11283,7 +11285,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -11306,7 +11308,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -11329,7 +11331,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -11352,7 +11354,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -11398,7 +11400,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -11444,7 +11446,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -11467,7 +11469,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -11513,7 +11515,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -11536,7 +11538,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -11582,7 +11584,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -11605,7 +11607,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -11628,7 +11630,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -11720,7 +11722,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -11743,7 +11745,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -11766,7 +11768,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -11812,7 +11814,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -11835,7 +11837,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -11858,7 +11860,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -11904,7 +11906,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -11927,7 +11929,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -11950,7 +11952,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -11973,7 +11975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -11996,7 +11998,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -12019,7 +12021,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -12042,7 +12044,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -12065,7 +12067,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -12134,7 +12136,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -12203,7 +12205,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -12249,7 +12251,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -12272,7 +12274,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -12364,7 +12366,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -12387,7 +12389,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -12410,7 +12412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -12433,7 +12435,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -12479,7 +12481,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -12525,7 +12527,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -12571,7 +12573,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -12594,7 +12596,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -12617,7 +12619,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -12640,7 +12642,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -12709,7 +12711,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -12732,7 +12734,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -12778,7 +12780,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -12801,7 +12803,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -12824,7 +12826,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -12847,7 +12849,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -12870,7 +12872,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -12893,7 +12895,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -12916,7 +12918,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -12979,7 +12981,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -13002,7 +13004,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -13048,7 +13050,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -13071,7 +13073,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -13094,7 +13096,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -13117,7 +13119,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -13140,7 +13142,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -13163,7 +13165,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -13186,7 +13188,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -13209,7 +13211,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -13232,7 +13234,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -13255,7 +13257,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -13278,7 +13280,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -13324,7 +13326,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -13347,7 +13349,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -13370,7 +13372,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -13393,7 +13395,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -13416,7 +13418,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>7</v>
       </c>
@@ -13439,7 +13441,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -13462,7 +13464,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -13485,7 +13487,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -13508,7 +13510,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -13531,7 +13533,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -13554,7 +13556,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -13577,7 +13579,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -13600,7 +13602,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -13623,7 +13625,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -13646,7 +13648,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -13669,7 +13671,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -13692,7 +13694,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -13715,7 +13717,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -13738,7 +13740,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -13784,7 +13786,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -13807,7 +13809,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -13830,7 +13832,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -13853,7 +13855,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -13876,7 +13878,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -13922,7 +13924,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -13968,7 +13970,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -13991,7 +13993,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -14014,7 +14016,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -14037,7 +14039,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -14060,7 +14062,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -14083,7 +14085,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -14106,7 +14108,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -14129,7 +14131,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -14152,7 +14154,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -14175,7 +14177,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -14198,7 +14200,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -14221,7 +14223,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -14244,7 +14246,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -14267,7 +14269,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -14290,7 +14292,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -14313,7 +14315,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -14336,7 +14338,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -14359,7 +14361,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -14382,7 +14384,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -14405,7 +14407,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -14428,7 +14430,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -14474,7 +14476,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -14497,7 +14499,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -14520,7 +14522,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -14543,7 +14545,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>7</v>
       </c>
@@ -14566,7 +14568,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -14612,7 +14614,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>7</v>
       </c>
@@ -14681,7 +14683,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -14704,7 +14706,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -14727,7 +14729,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>114</v>
       </c>
@@ -14750,7 +14752,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>114</v>
       </c>
@@ -14773,7 +14775,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>114</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>114</v>
       </c>
@@ -14819,7 +14821,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>114</v>
       </c>
@@ -14842,7 +14844,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>114</v>
       </c>
@@ -14865,7 +14867,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>114</v>
       </c>
@@ -14888,7 +14890,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>114</v>
       </c>
@@ -14911,7 +14913,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>114</v>
       </c>
@@ -14934,7 +14936,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>114</v>
       </c>
@@ -14957,7 +14959,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>114</v>
       </c>
@@ -14980,7 +14982,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>114</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>114</v>
       </c>
@@ -15026,7 +15028,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>114</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>114</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>114</v>
       </c>
@@ -15095,7 +15097,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>114</v>
       </c>
@@ -15118,7 +15120,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>114</v>
       </c>
@@ -15141,7 +15143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>114</v>
       </c>
@@ -15164,7 +15166,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>114</v>
       </c>
@@ -15187,7 +15189,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>114</v>
       </c>
@@ -15210,7 +15212,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>114</v>
       </c>
@@ -15233,7 +15235,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>114</v>
       </c>
@@ -15256,7 +15258,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>114</v>
       </c>
@@ -15279,7 +15281,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>114</v>
       </c>
@@ -15302,7 +15304,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>114</v>
       </c>
@@ -15325,7 +15327,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>114</v>
       </c>
@@ -15348,7 +15350,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>114</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>114</v>
       </c>
@@ -15394,7 +15396,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>114</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>114</v>
       </c>
@@ -15440,7 +15442,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>114</v>
       </c>
@@ -15463,7 +15465,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>114</v>
       </c>
@@ -15486,7 +15488,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>114</v>
       </c>
@@ -15509,7 +15511,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>114</v>
       </c>
@@ -15532,7 +15534,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>114</v>
       </c>
@@ -15555,7 +15557,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>114</v>
       </c>
@@ -15578,7 +15580,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>114</v>
       </c>
@@ -15601,7 +15603,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>114</v>
       </c>
@@ -15624,7 +15626,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>114</v>
       </c>
@@ -15647,7 +15649,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>114</v>
       </c>
@@ -15670,7 +15672,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>114</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>114</v>
       </c>
@@ -15716,7 +15718,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>114</v>
       </c>
@@ -15739,7 +15741,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>114</v>
       </c>
@@ -15762,7 +15764,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>114</v>
       </c>
@@ -15785,7 +15787,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>114</v>
       </c>
@@ -15808,7 +15810,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>114</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>114</v>
       </c>
@@ -15854,7 +15856,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>114</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>114</v>
       </c>
@@ -15900,7 +15902,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>114</v>
       </c>
@@ -15923,7 +15925,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>114</v>
       </c>
@@ -15946,7 +15948,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>114</v>
       </c>
@@ -15969,7 +15971,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>114</v>
       </c>
@@ -15992,7 +15994,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>114</v>
       </c>
@@ -16015,7 +16017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>114</v>
       </c>
@@ -16038,7 +16040,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>114</v>
       </c>
@@ -16061,7 +16063,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>114</v>
       </c>
@@ -16084,7 +16086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>114</v>
       </c>
@@ -16107,7 +16109,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>114</v>
       </c>
@@ -16130,7 +16132,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>114</v>
       </c>
@@ -16153,7 +16155,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>114</v>
       </c>
@@ -16176,7 +16178,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>114</v>
       </c>
@@ -16199,7 +16201,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>114</v>
       </c>
@@ -16222,7 +16224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>114</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>114</v>
       </c>
@@ -16268,7 +16270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>114</v>
       </c>
@@ -16291,7 +16293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>114</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>114</v>
       </c>
@@ -16337,7 +16339,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>114</v>
       </c>
@@ -16360,7 +16362,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>114</v>
       </c>
@@ -16383,7 +16385,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>114</v>
       </c>
@@ -16406,7 +16408,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>114</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>114</v>
       </c>
@@ -16452,7 +16454,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>114</v>
       </c>
@@ -16475,7 +16477,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>114</v>
       </c>
@@ -16498,7 +16500,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>114</v>
       </c>
@@ -16521,7 +16523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>114</v>
       </c>
@@ -16544,7 +16546,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>114</v>
       </c>
@@ -16567,7 +16569,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>114</v>
       </c>
@@ -16590,7 +16592,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>114</v>
       </c>
@@ -16613,7 +16615,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>114</v>
       </c>
@@ -16636,7 +16638,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>114</v>
       </c>
@@ -16659,7 +16661,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>114</v>
       </c>
@@ -16682,7 +16684,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>114</v>
       </c>
@@ -16705,7 +16707,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>114</v>
       </c>
@@ -16728,7 +16730,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>114</v>
       </c>
@@ -16751,7 +16753,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>114</v>
       </c>
@@ -16774,7 +16776,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>114</v>
       </c>
@@ -16797,7 +16799,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>114</v>
       </c>
@@ -16820,7 +16822,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>114</v>
       </c>
@@ -16843,7 +16845,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>114</v>
       </c>
@@ -16866,7 +16868,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>114</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>114</v>
       </c>
@@ -16912,7 +16914,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>114</v>
       </c>
@@ -16935,7 +16937,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>114</v>
       </c>
@@ -16958,7 +16960,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>114</v>
       </c>
@@ -16981,7 +16983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>114</v>
       </c>
@@ -17004,7 +17006,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>114</v>
       </c>
@@ -17027,7 +17029,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>114</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>114</v>
       </c>
@@ -17073,7 +17075,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>114</v>
       </c>
@@ -17096,7 +17098,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>114</v>
       </c>
@@ -17119,7 +17121,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>114</v>
       </c>
@@ -17142,7 +17144,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>114</v>
       </c>
@@ -17165,7 +17167,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>114</v>
       </c>
@@ -17188,7 +17190,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>114</v>
       </c>
@@ -17211,7 +17213,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>114</v>
       </c>
@@ -17234,7 +17236,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>114</v>
       </c>
@@ -17257,7 +17259,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>114</v>
       </c>
@@ -17280,7 +17282,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>114</v>
       </c>
@@ -17303,7 +17305,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>114</v>
       </c>
@@ -17326,7 +17328,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>114</v>
       </c>
@@ -17349,7 +17351,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>114</v>
       </c>
@@ -17372,7 +17374,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>114</v>
       </c>
@@ -17395,7 +17397,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>114</v>
       </c>
@@ -17418,7 +17420,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>114</v>
       </c>
@@ -17441,7 +17443,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>114</v>
       </c>
@@ -17464,7 +17466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>114</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>114</v>
       </c>
@@ -17510,7 +17512,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>114</v>
       </c>
@@ -17533,7 +17535,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>114</v>
       </c>
@@ -17556,7 +17558,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>114</v>
       </c>
@@ -17579,7 +17581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>114</v>
       </c>
@@ -17602,7 +17604,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>114</v>
       </c>
@@ -17625,7 +17627,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>114</v>
       </c>
@@ -17648,7 +17650,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>114</v>
       </c>
@@ -17671,7 +17673,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>114</v>
       </c>
@@ -17694,7 +17696,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>114</v>
       </c>
@@ -17717,7 +17719,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>114</v>
       </c>
@@ -17740,7 +17742,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>114</v>
       </c>
@@ -17763,7 +17765,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>114</v>
       </c>
@@ -17786,7 +17788,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>114</v>
       </c>
@@ -17809,7 +17811,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>114</v>
       </c>
@@ -17832,7 +17834,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>114</v>
       </c>
@@ -17855,7 +17857,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>114</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>114</v>
       </c>
@@ -17901,7 +17903,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>114</v>
       </c>
@@ -17924,7 +17926,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>114</v>
       </c>
@@ -17947,7 +17949,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>114</v>
       </c>
@@ -17970,7 +17972,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>114</v>
       </c>
@@ -17993,7 +17995,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>114</v>
       </c>
@@ -18016,7 +18018,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>114</v>
       </c>
@@ -18039,7 +18041,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>114</v>
       </c>
@@ -18062,7 +18064,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>114</v>
       </c>
@@ -18085,7 +18087,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>114</v>
       </c>
@@ -18108,7 +18110,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>114</v>
       </c>
@@ -18131,7 +18133,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>114</v>
       </c>
@@ -18154,7 +18156,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>114</v>
       </c>
@@ -18177,7 +18179,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>114</v>
       </c>
@@ -18200,7 +18202,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>114</v>
       </c>
@@ -18223,7 +18225,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>114</v>
       </c>
@@ -18246,7 +18248,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>114</v>
       </c>
@@ -18269,7 +18271,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>114</v>
       </c>
@@ -18292,7 +18294,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>114</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>114</v>
       </c>
@@ -18338,7 +18340,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>114</v>
       </c>
@@ -18361,7 +18363,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>114</v>
       </c>
@@ -18384,7 +18386,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>114</v>
       </c>
@@ -18407,7 +18409,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>114</v>
       </c>
@@ -18430,7 +18432,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>114</v>
       </c>
@@ -18453,7 +18455,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>114</v>
       </c>
@@ -18476,7 +18478,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>114</v>
       </c>
@@ -18499,7 +18501,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>114</v>
       </c>
@@ -18522,7 +18524,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>114</v>
       </c>
@@ -18545,7 +18547,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>114</v>
       </c>
@@ -18568,7 +18570,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>114</v>
       </c>
@@ -18591,7 +18593,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>114</v>
       </c>
@@ -18614,7 +18616,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>114</v>
       </c>
@@ -18637,7 +18639,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>114</v>
       </c>
@@ -18660,7 +18662,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>114</v>
       </c>
@@ -18683,7 +18685,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>114</v>
       </c>
@@ -18706,7 +18708,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>114</v>
       </c>
@@ -18729,7 +18731,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>114</v>
       </c>
@@ -18752,7 +18754,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>114</v>
       </c>
@@ -18775,7 +18777,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>114</v>
       </c>
@@ -18798,7 +18800,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>114</v>
       </c>
@@ -18821,7 +18823,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>114</v>
       </c>
@@ -18844,7 +18846,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>114</v>
       </c>
@@ -18867,7 +18869,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>114</v>
       </c>
@@ -18890,7 +18892,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>114</v>
       </c>
@@ -18913,7 +18915,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>114</v>
       </c>
@@ -18936,7 +18938,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>114</v>
       </c>
@@ -18959,7 +18961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>114</v>
       </c>
@@ -18982,7 +18984,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>114</v>
       </c>
@@ -19005,7 +19007,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>114</v>
       </c>
@@ -19028,7 +19030,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>114</v>
       </c>
@@ -19051,7 +19053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>114</v>
       </c>
@@ -19074,7 +19076,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>114</v>
       </c>
@@ -19097,7 +19099,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>114</v>
       </c>
@@ -19120,7 +19122,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>114</v>
       </c>
@@ -19140,7 +19142,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>114</v>
       </c>
@@ -19163,7 +19165,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>114</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>114</v>
       </c>
@@ -19209,7 +19211,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>114</v>
       </c>
@@ -19232,7 +19234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>114</v>
       </c>
@@ -19255,7 +19257,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>114</v>
       </c>
@@ -19278,7 +19280,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>114</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>114</v>
       </c>
@@ -19324,7 +19326,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>114</v>
       </c>
@@ -19347,7 +19349,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>114</v>
       </c>
@@ -19370,7 +19372,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>114</v>
       </c>
@@ -19393,7 +19395,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>114</v>
       </c>
@@ -19416,7 +19418,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>114</v>
       </c>
@@ -19439,7 +19441,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>114</v>
       </c>
@@ -19462,7 +19464,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>114</v>
       </c>
@@ -19485,7 +19487,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>114</v>
       </c>
@@ -19508,7 +19510,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>114</v>
       </c>
@@ -19531,7 +19533,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>114</v>
       </c>
@@ -19554,7 +19556,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>114</v>
       </c>
@@ -19577,7 +19579,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>114</v>
       </c>
@@ -19600,7 +19602,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>114</v>
       </c>
@@ -19623,7 +19625,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>114</v>
       </c>
@@ -19646,7 +19648,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>114</v>
       </c>
@@ -19669,7 +19671,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>114</v>
       </c>
@@ -19692,7 +19694,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>114</v>
       </c>
@@ -19715,7 +19717,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>114</v>
       </c>
@@ -19738,7 +19740,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>114</v>
       </c>
@@ -19761,7 +19763,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>114</v>
       </c>
@@ -19784,7 +19786,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>114</v>
       </c>
@@ -19807,7 +19809,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>114</v>
       </c>
@@ -19830,7 +19832,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>114</v>
       </c>
@@ -19853,7 +19855,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>114</v>
       </c>
@@ -19876,7 +19878,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>114</v>
       </c>
@@ -19899,7 +19901,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>114</v>
       </c>
@@ -19922,7 +19924,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>114</v>
       </c>
@@ -19945,7 +19947,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>114</v>
       </c>
@@ -19968,7 +19970,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>114</v>
       </c>
@@ -19991,7 +19993,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>114</v>
       </c>
@@ -20014,7 +20016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>114</v>
       </c>
@@ -20037,7 +20039,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>114</v>
       </c>
@@ -20060,7 +20062,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>114</v>
       </c>
@@ -20083,7 +20085,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>114</v>
       </c>
@@ -20106,7 +20108,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>114</v>
       </c>
@@ -20129,7 +20131,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>114</v>
       </c>
@@ -20152,7 +20154,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>114</v>
       </c>
@@ -20175,7 +20177,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>114</v>
       </c>
@@ -20198,7 +20200,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>114</v>
       </c>
@@ -20221,7 +20223,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>114</v>
       </c>
@@ -20244,7 +20246,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>114</v>
       </c>
@@ -20267,7 +20269,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>114</v>
       </c>
@@ -20290,7 +20292,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>114</v>
       </c>
@@ -20313,7 +20315,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>114</v>
       </c>
@@ -20336,7 +20338,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>114</v>
       </c>
@@ -20359,7 +20361,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>114</v>
       </c>
@@ -20382,7 +20384,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>114</v>
       </c>
@@ -20405,7 +20407,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>114</v>
       </c>
@@ -20428,7 +20430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>114</v>
       </c>
@@ -20451,7 +20453,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>114</v>
       </c>
@@ -20474,7 +20476,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>114</v>
       </c>
@@ -20497,7 +20499,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>114</v>
       </c>
@@ -20520,7 +20522,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>114</v>
       </c>
@@ -20543,7 +20545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>114</v>
       </c>
@@ -20566,7 +20568,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>114</v>
       </c>
@@ -20589,7 +20591,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>114</v>
       </c>
@@ -20612,7 +20614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>114</v>
       </c>
@@ -20635,7 +20637,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>114</v>
       </c>
@@ -20658,7 +20660,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>114</v>
       </c>
@@ -20681,7 +20683,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>114</v>
       </c>
@@ -20704,7 +20706,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>114</v>
       </c>
@@ -20727,7 +20729,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>114</v>
       </c>
@@ -20750,7 +20752,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>114</v>
       </c>
@@ -20773,7 +20775,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>114</v>
       </c>
@@ -20796,7 +20798,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>114</v>
       </c>
@@ -20819,7 +20821,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>114</v>
       </c>
@@ -20842,7 +20844,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>114</v>
       </c>
@@ -20865,7 +20867,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>114</v>
       </c>
@@ -20888,7 +20890,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>114</v>
       </c>
@@ -20911,7 +20913,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>114</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>114</v>
       </c>
@@ -20957,7 +20959,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>114</v>
       </c>
@@ -20980,7 +20982,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>114</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>114</v>
       </c>
@@ -21026,7 +21028,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>114</v>
       </c>
@@ -21049,7 +21051,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>114</v>
       </c>
@@ -21072,7 +21074,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>114</v>
       </c>
@@ -21095,7 +21097,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>114</v>
       </c>
@@ -21118,7 +21120,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>114</v>
       </c>
@@ -21141,7 +21143,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>114</v>
       </c>
@@ -21164,7 +21166,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>114</v>
       </c>
@@ -21187,7 +21189,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>114</v>
       </c>
@@ -21210,7 +21212,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>114</v>
       </c>
@@ -21233,7 +21235,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>114</v>
       </c>
@@ -21256,7 +21258,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>114</v>
       </c>
@@ -21279,7 +21281,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>114</v>
       </c>
@@ -21302,7 +21304,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>114</v>
       </c>
@@ -21325,7 +21327,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>114</v>
       </c>
@@ -21348,7 +21350,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>114</v>
       </c>
@@ -21371,7 +21373,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>114</v>
       </c>
@@ -21394,7 +21396,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>114</v>
       </c>
@@ -21417,7 +21419,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>114</v>
       </c>
@@ -21440,7 +21442,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>114</v>
       </c>
@@ -21463,7 +21465,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>114</v>
       </c>
@@ -21486,7 +21488,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>114</v>
       </c>
@@ -21509,7 +21511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>114</v>
       </c>
@@ -21532,7 +21534,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>114</v>
       </c>
@@ -21555,7 +21557,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>114</v>
       </c>
@@ -21578,7 +21580,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>114</v>
       </c>
@@ -21601,7 +21603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>114</v>
       </c>
@@ -21624,7 +21626,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>114</v>
       </c>
